--- a/LISTA DE ENSAMBLES.xlsx
+++ b/LISTA DE ENSAMBLES.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8123" uniqueCount="1673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8124" uniqueCount="1674">
   <si>
     <t>SKU</t>
   </si>
@@ -5040,6 +5040,9 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>lao</t>
   </si>
 </sst>
 </file>
@@ -27590,10 +27593,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1" filterMode="1"/>
-  <dimension ref="A1:H2856"/>
+  <dimension ref="A1:H2857"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156:A2853"/>
+      <selection activeCell="C2859" sqref="C2859"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67910,6 +67913,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2857" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2857" s="3" t="s">
+        <v>1673</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2856">
     <filterColumn colId="1">
